--- a/개인프로젝트/박동규 개인프로젝트/박동규 개인프로젝트.xlsx
+++ b/개인프로젝트/박동규 개인프로젝트/박동규 개인프로젝트.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitLocation\HPMWPro\개인프로젝트\박동규 개인프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webProDK\HPMW\개인프로젝트\박동규 개인프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ED0934-19F4-425E-9A66-2FB0B2F845E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-204" yWindow="72" windowWidth="17712" windowHeight="11796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-210" yWindow="75" windowWidth="17715" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="기능정의및설계" sheetId="7" r:id="rId4"/>
     <sheet name="테스트케이스" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="287">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,67 +136,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 모드 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 모드 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인화면(해더, 풋터)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 모듈 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서신청 (파일업로드,답변,페이징)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내서재(내대출,내예약,내자리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서예약(대출중인 도서 3명까지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유게시판(답변, 페이징)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인, 로그아웃, 정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입, 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자등록, 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대출, 반납</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원강등, 레벨별 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서등록, 수정, 삭제, 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지글 작성, 수정, 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지글 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -345,10 +284,6 @@
   </si>
   <si>
     <t>테스트(데모발표) 케이스 예시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자리예약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1226,12 +1161,64 @@
     <t>ManagerDeleteService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>관리자 모드 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트타이머 모드 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트타이머 관리(정보 입력 및 마감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시판 (글쓰기, 삭제, 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의사항 게시판 (답변글, 삭제, 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 (로그인, 입력, 삭제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 정보 게시판(글쓰기, 수정, 삭제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로계약서(작성, 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시판(글 읽기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의사항 게시판(글쓰기, 삭제, 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사게시판(글 읽기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지(나의 행사보기, 정보수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인(로그인, 정보 찾기 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1314,14 +1301,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="9" tint="0.59999389629810485"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF212121"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1345,7 +1324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1451,12 +1430,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3DB2D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,7 +1678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1730,9 +1703,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1781,9 +1751,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1835,46 +1802,85 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1892,34 +1898,70 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,88 +1970,10 @@
     <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2041,7 +2005,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2147,23 +2111,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2199,23 +2146,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2391,171 +2321,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" style="4"/>
-    <col min="2" max="2" width="0.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.69921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="0.69921875" style="4" customWidth="1"/>
-    <col min="5" max="15" width="2.8984375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="0.69921875" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="2.19921875" style="4"/>
+    <col min="1" max="1" width="2.25" style="4"/>
+    <col min="2" max="2" width="0.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="0.75" style="4" customWidth="1"/>
+    <col min="5" max="15" width="2.875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="0.75" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="2.25" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
+      <c r="B2" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="4.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="19"/>
+    <row r="5" spans="1:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="57" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="21"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="13">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="12">
         <v>27</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>28</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>29</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>30</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>1</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>2</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>3</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>4</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>5</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>6</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <v>7</v>
       </c>
-      <c r="P7" s="24"/>
+      <c r="P7" s="23"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2570,16 +2500,16 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="16"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2591,14 +2521,14 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="16"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2610,17 +2540,17 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="16"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="38"/>
+      <c r="C11" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2631,15 +2561,15 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="16"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -2650,14 +2580,14 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="16"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
+    <row r="13" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2669,17 +2599,17 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="16"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2690,15 +2620,15 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="16"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -2709,14 +2639,14 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="16"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -2728,18 +2658,18 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="16"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2749,16 +2679,16 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="16"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2768,14 +2698,14 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="16"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2787,14 +2717,14 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="16"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="13" t="s">
-        <v>22</v>
+      <c r="C20" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2808,38 +2738,38 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="16"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
       <c r="B21" s="6"/>
       <c r="C21" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="16"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
       <c r="B22" s="6"/>
       <c r="C22" s="64"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -2848,14 +2778,14 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="16"/>
+      <c r="P22" s="15"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="16"/>
+    <row r="23" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2867,54 +2797,54 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="16"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
       <c r="B24" s="6"/>
       <c r="C24" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="10"/>
+        <v>279</v>
+      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="16"/>
+      <c r="P24" s="15"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
       <c r="B25" s="6"/>
       <c r="C25" s="64"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="16"/>
+      <c r="P25" s="15"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2926,54 +2856,54 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="16"/>
+      <c r="P26" s="15"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
       <c r="B27" s="6"/>
       <c r="C27" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>277</v>
+      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="16"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
       <c r="B28" s="6"/>
       <c r="C28" s="64"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="16"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="15"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2985,54 +2915,54 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="16"/>
+      <c r="P29" s="15"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
       <c r="B30" s="6"/>
       <c r="C30" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>278</v>
+      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="16"/>
+      <c r="P30" s="15"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
       <c r="B31" s="6"/>
       <c r="C31" s="64"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="16"/>
+      <c r="P31" s="15"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3044,35 +2974,35 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="16"/>
+      <c r="P32" s="15"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
       <c r="B33" s="6"/>
       <c r="C33" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="10"/>
+        <v>276</v>
+      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="5"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="16"/>
+      <c r="P33" s="15"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="16"/>
+    <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
       <c r="B34" s="6"/>
       <c r="C34" s="64"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -3084,14 +3014,14 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="16"/>
+      <c r="P34" s="15"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="16"/>
+    <row r="35" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3103,54 +3033,54 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="16"/>
+      <c r="P35" s="15"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="16"/>
+    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
       <c r="B36" s="6"/>
       <c r="C36" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="10"/>
+        <v>280</v>
+      </c>
+      <c r="D36" s="9"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="38"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="16"/>
+      <c r="P36" s="15"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="16"/>
+    <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
       <c r="B37" s="6"/>
       <c r="C37" s="64"/>
-      <c r="D37" s="10"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="16"/>
+      <c r="P37" s="15"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="16"/>
+    <row r="38" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3162,14 +3092,14 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="16"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="16"/>
+    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="13" t="s">
-        <v>25</v>
+      <c r="C39" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -3183,38 +3113,38 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="16"/>
+      <c r="P39" s="15"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="16"/>
+    <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="10"/>
+      <c r="C40" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" s="9"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="25"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="36"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="16"/>
+      <c r="P40" s="15"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
+    <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -3223,14 +3153,14 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="16"/>
+      <c r="P41" s="15"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="16"/>
+    <row r="42" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3242,35 +3172,35 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="16"/>
+      <c r="P42" s="15"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="16"/>
+    <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="10"/>
+      <c r="C43" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="6"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
       <c r="O43" s="6"/>
-      <c r="P43" s="16"/>
+      <c r="P43" s="15"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="16"/>
+    <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="10"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3278,18 +3208,18 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="16"/>
+      <c r="P44" s="15"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="16"/>
+    <row r="45" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3301,35 +3231,35 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
-      <c r="P45" s="16"/>
+      <c r="P45" s="15"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="16"/>
+    <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="10"/>
+      <c r="C46" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="9"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="16"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="15"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="16"/>
+    <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3338,17 +3268,17 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="8"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="16"/>
+      <c r="P47" s="15"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="16"/>
+    <row r="48" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -3360,35 +3290,35 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
-      <c r="P48" s="16"/>
+      <c r="P48" s="15"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
+    <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="10"/>
+      <c r="C49" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
-      <c r="P49" s="16"/>
+      <c r="P49" s="15"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="16"/>
+    <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="10"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -3397,17 +3327,17 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="8"/>
+      <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
-      <c r="P50" s="16"/>
+      <c r="P50" s="15"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="16"/>
+    <row r="51" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -3419,37 +3349,35 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="16"/>
+      <c r="P51" s="15"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
+    <row r="52" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="6"/>
+      <c r="C52" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D52" s="9"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="16"/>
+      <c r="P52" s="15"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
+    <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="10"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -3457,18 +3385,18 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="16"/>
+      <c r="P53" s="15"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
+    <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -3476,39 +3404,39 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="8"/>
+      <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="16"/>
+      <c r="P54" s="15"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="16"/>
+    <row r="55" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="9"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
-      <c r="P55" s="16"/>
+      <c r="P55" s="15"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="16"/>
+    <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="10"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -3516,18 +3444,18 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
-      <c r="P56" s="16"/>
+      <c r="P56" s="15"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="16"/>
+    <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -3535,18 +3463,18 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="8"/>
+      <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
-      <c r="P57" s="16"/>
+      <c r="P57" s="15"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="16"/>
+    <row r="58" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -3558,16 +3486,16 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-      <c r="P58" s="16"/>
+      <c r="P58" s="15"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
+    <row r="59" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="10"/>
+      <c r="C59" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="7"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -3575,18 +3503,18 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="16"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="15"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="16"/>
+    <row r="60" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="10"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -3595,278 +3523,100 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="8"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="16"/>
+      <c r="P60" s="15"/>
       <c r="Q60" s="5"/>
     </row>
-    <row r="61" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="16"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="16"/>
+    <row r="61" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="17"/>
       <c r="Q61" s="5"/>
     </row>
-    <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="16"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="16"/>
+    <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
     </row>
-    <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="16"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
+    <row r="63" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" s="36"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="16"/>
+      <c r="L63" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="M63" s="59"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="16"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="5"/>
-    </row>
-    <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="16"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="5"/>
-    </row>
-    <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="16"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="5"/>
-    </row>
-    <row r="67" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="16"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="5"/>
-    </row>
-    <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="16"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="5"/>
-    </row>
-    <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="16"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="5"/>
-    </row>
-    <row r="70" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="5"/>
-    </row>
-    <row r="71" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-    </row>
-    <row r="72" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="J72" s="38"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="M72" s="66"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C53:C54"/>
+  <mergeCells count="22">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C24:C25"/>
@@ -3878,12 +3628,10 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="F63:G63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3892,27 +3640,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="30.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3922,8 +3670,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="69"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="73"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +3682,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="69"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3949,8 +3697,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="69"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="73"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3967,7 +3715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3990,7 +3738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4006,110 +3754,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.69921875" customWidth="1"/>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="28"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="30"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="31"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="32"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="C6" s="30"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="33"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="C7" s="31"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="34"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="35"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="36"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="30"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="37"/>
+        <v>37</v>
+      </c>
+      <c r="C16" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4118,1220 +3866,1191 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="E15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="45" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="9" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.8984375" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="45" customWidth="1"/>
-    <col min="8" max="8" width="33.09765625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="40.296875" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="45"/>
+    <col min="1" max="1" width="2" style="43" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="9" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="43" customWidth="1"/>
+    <col min="8" max="8" width="33.125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="40.25" style="43" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="70" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="F3" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="93"/>
+      <c r="C7" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="93"/>
+      <c r="C12" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="93"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="93"/>
+      <c r="C14" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="93"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="93"/>
+      <c r="C21" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="93"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="93"/>
+      <c r="C23" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="51"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="83" t="s">
+      <c r="F27" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="F31" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="91"/>
+      <c r="C32" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="91"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="91"/>
+      <c r="C37" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="I40" s="51" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="77"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="53" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="I42" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="91"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="91"/>
+      <c r="C44" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="77"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="77"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="77"/>
-      <c r="C7" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="46" t="s">
+      <c r="H47" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="I47" s="50" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="53" t="s">
+    <row r="48" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="91"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="77"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="77"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="77"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="77"/>
-      <c r="C12" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="89" t="s">
+      <c r="H48" s="50"/>
+      <c r="I48" s="50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="H49" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="G51" s="48"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="H52" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="I52" s="47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="83"/>
+      <c r="C53" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G55" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="I55" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="83"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="G56" s="45"/>
+      <c r="H56" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="I56" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="83"/>
+      <c r="C57" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="77"/>
-      <c r="C14" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="89" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="I15" s="53" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="83" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="I19" s="53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="I20" s="53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="77"/>
-      <c r="C21" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="89" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="77"/>
-      <c r="C23" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="89" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="H23" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" s="53"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="H29" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="I30" s="52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="73"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="I31" s="52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="73"/>
-      <c r="C32" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="I32" s="52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="90" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>225</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="I34" s="52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="I35" s="52" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="73"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="G36" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="I36" s="52" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="73"/>
-      <c r="C37" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="I37" s="52" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="90" t="s">
-        <v>250</v>
-      </c>
-      <c r="E38" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="I39" s="52" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="H40" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="I41" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="99" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="G42" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="H42" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="I42" s="53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="73"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="H43" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="I43" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="73"/>
-      <c r="C44" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="90" t="s">
+      <c r="E57" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="I44" s="52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="E45" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="G45" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="H45" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="I45" s="52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="G46" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="G47" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="H47" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="I47" s="52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="G48" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="G49" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="I49" s="52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="93" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="I50" s="52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="G51" s="50"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="47" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="G52" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="H52" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="I52" s="49" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="81"/>
-      <c r="C53" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="G55" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="H55" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="81"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="F56" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="G56" s="47"/>
-      <c r="H56" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="I56" s="49" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="81"/>
-      <c r="C57" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="82"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="84"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="B25:B50"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C20"/>
     <mergeCell ref="B3:B24"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="E42:E43"/>
@@ -5348,6 +5067,35 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="C32:C36"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="B25:B50"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
     <mergeCell ref="C23:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5357,81 +5105,81 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.09765625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/개인프로젝트/박동규 개인프로젝트/박동규 개인프로젝트.xlsx
+++ b/개인프로젝트/박동규 개인프로젝트/박동규 개인프로젝트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitLocation\HPMWPro\개인프로젝트\박동규 개인프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ED0934-19F4-425E-9A66-2FB0B2F845E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736A1DD7-7C96-4BA9-B0CC-D976FBDC6BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-204" yWindow="72" windowWidth="17712" windowHeight="11796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="309">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1173,9 +1173,6 @@
   </si>
   <si>
     <t xml:space="preserve">employContract/empContract.jsp </t>
-  </si>
-  <si>
-    <t xml:space="preserve">employContract/empContract.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1224,6 +1221,84 @@
   </si>
   <si>
     <t>ManagerDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트타이머 근로계약서
+수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트타이머 근로계약서 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">매니저 로그인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>managerLogin.do</t>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+  </si>
+  <si>
+    <t>ManagerLoginService</t>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메인페이지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 3종 출력
+10개씩만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllBoardListService</t>
+  </si>
+  <si>
+    <t>ManagerListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그아웃 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 계정 로그아웃 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NoticeBoardContentDetailService.java </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeBoardContentDetail.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">noticeBoard/noticeBoardContentDetail.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1705,7 +1780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1850,9 +1925,6 @@
     <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1868,6 +1940,54 @@
     <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1892,124 +2012,82 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2412,41 +2490,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -2491,32 +2569,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="72" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="58"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -2616,7 +2694,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="66" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -2637,7 +2715,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="62"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2675,7 +2753,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="69" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -2696,7 +2774,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2734,7 +2812,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="66" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2755,7 +2833,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="62"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2814,7 +2892,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2835,7 +2913,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="64"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2873,7 +2951,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="67" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2894,7 +2972,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="64"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2932,7 +3010,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="67" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -2953,7 +3031,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="64"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2991,7 +3069,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -3012,7 +3090,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="64"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3050,7 +3128,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="67" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -3071,7 +3149,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="64"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -3109,7 +3187,7 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="10"/>
@@ -3130,7 +3208,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="64"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3189,7 +3267,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -3210,7 +3288,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="65"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3248,7 +3326,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="68" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -3269,7 +3347,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="65"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3307,7 +3385,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -3328,7 +3406,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="65"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3366,7 +3444,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="68" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -3387,7 +3465,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="65"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3741,7 +3819,7 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="64" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="7"/>
@@ -3762,7 +3840,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="67"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3822,18 +3900,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
         <v>88</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="66" t="s">
+      <c r="L72" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="M72" s="66"/>
+      <c r="M72" s="62"/>
       <c r="N72" s="42"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -3859,13 +3937,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3878,12 +3955,13 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3912,7 +3990,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="77" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3923,7 +4001,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="69"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +4013,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="69"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3950,7 +4028,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="69"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4119,10 +4197,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:I58"/>
+  <dimension ref="B2:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4132,14 +4210,16 @@
     <col min="3" max="3" width="9" style="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.796875" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.8984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="45" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="45" customWidth="1"/>
-    <col min="8" max="8" width="33.09765625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="40.296875" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="45"/>
+    <col min="8" max="8" width="39.19921875" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" style="45"/>
+    <col min="11" max="11" width="11" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="43" t="s">
         <v>58</v>
       </c>
@@ -4165,91 +4245,103 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="70" t="s">
+    <row r="3" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="77"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="53" t="s">
+      <c r="J3" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="77"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="83" t="s">
+      <c r="J4" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="77"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="53" t="s">
+      <c r="J5" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="52" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="77"/>
-      <c r="C7" s="70" t="s">
+      <c r="J6" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="97"/>
+      <c r="C7" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="53" t="s">
         <v>95</v>
       </c>
       <c r="F7" s="46" t="s">
@@ -4265,142 +4357,160 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="83" t="s">
+    <row r="8" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="52" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="77"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="53" t="s">
+      <c r="J8" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="97"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="52" t="s">
         <v>165</v>
       </c>
       <c r="G9" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="52" t="s">
         <v>159</v>
       </c>
       <c r="I9" s="46" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="77"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="83" t="s">
+      <c r="J9" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="52" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="77"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="53" t="s">
+      <c r="J10" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="52" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="77"/>
-      <c r="C12" s="70" t="s">
+      <c r="J11" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="97"/>
+      <c r="C12" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="53" t="s">
         <v>131</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>171</v>
       </c>
       <c r="G12" s="46"/>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="52" t="s">
         <v>172</v>
       </c>
       <c r="I12" s="46" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="89" t="s">
+      <c r="J12" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="97"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="52" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="77"/>
-      <c r="C14" s="70" t="s">
+      <c r="J13" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="97"/>
+      <c r="C14" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="52" t="s">
         <v>175</v>
       </c>
       <c r="G14" s="46"/>
@@ -4410,158 +4520,182 @@
       <c r="I14" s="46" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="89" t="s">
+      <c r="J14" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="52" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="83" t="s">
+      <c r="J15" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53" t="s">
+      <c r="H16" s="52"/>
+      <c r="I16" s="52" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="53" t="s">
+      <c r="J16" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="52" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="88" t="s">
+      <c r="J17" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="52" t="s">
         <v>185</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="52" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="53" t="s">
+      <c r="J18" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="52" t="s">
         <v>187</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="52" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="89" t="s">
+      <c r="J19" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="97"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="E20" s="89" t="s">
+      <c r="E20" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="52" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="77"/>
-      <c r="C21" s="70" t="s">
+      <c r="J20" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="97"/>
+      <c r="C21" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="89" t="s">
+      <c r="E21" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="52"/>
+      <c r="H21" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="52" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="89" t="s">
+      <c r="J21" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="97"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="53" t="s">
         <v>101</v>
       </c>
       <c r="F22" s="46" t="s">
@@ -4573,770 +4707,952 @@
       <c r="H22" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="52" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="77"/>
-      <c r="C23" s="70" t="s">
+      <c r="J22" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="97"/>
+      <c r="C23" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="52" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="89" t="s">
+      <c r="J23" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="89" t="s">
+      <c r="E24" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="H24" s="53" t="s">
+      <c r="H24" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="I24" s="53"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="72" t="s">
+      <c r="I24" s="52"/>
+      <c r="J24" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="90" t="s">
+      <c r="E25" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52" t="s">
+      <c r="G25" s="51"/>
+      <c r="H25" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="51" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="90" t="s">
+      <c r="J25" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="90" t="s">
+      <c r="E26" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="51" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="97" t="s">
+      <c r="J26" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52" t="s">
+      <c r="H27" s="51"/>
+      <c r="I27" s="51" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="52" t="s">
+      <c r="J27" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="I28" s="52" t="s">
+      <c r="I28" s="51" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="97" t="s">
+      <c r="J28" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="51" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="52" t="s">
+      <c r="J29" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H30" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="51" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="73"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="90" t="s">
+      <c r="J30" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="51" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="73"/>
-      <c r="C32" s="72" t="s">
+      <c r="J31" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="87"/>
+      <c r="C32" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="90" t="s">
+      <c r="D32" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="90" t="s">
+      <c r="E32" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52" t="s">
+      <c r="G32" s="51"/>
+      <c r="H32" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="51" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="90" t="s">
+      <c r="J32" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="E33" s="90" t="s">
+      <c r="E33" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="51" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="90" t="s">
+      <c r="J33" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="52" t="s">
+      <c r="H34" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="I34" s="52" t="s">
+      <c r="I34" s="51" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="97" t="s">
+      <c r="J34" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="51" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="73"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="52" t="s">
+      <c r="J35" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="I36" s="52" t="s">
+      <c r="I36" s="51" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="73"/>
-      <c r="C37" s="72" t="s">
+      <c r="J36" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B37" s="87"/>
+      <c r="C37" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="90" t="s">
+      <c r="D37" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="90" t="s">
+      <c r="E37" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52" t="s">
+      <c r="G37" s="51"/>
+      <c r="H37" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="51" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="90" t="s">
+      <c r="J37" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="E38" s="90" t="s">
+      <c r="E38" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52" t="s">
+      <c r="H38" s="51"/>
+      <c r="I38" s="51" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="91" t="s">
+      <c r="J38" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="90" t="s">
+      <c r="E39" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52" t="s">
+      <c r="G39" s="51"/>
+      <c r="H39" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="I39" s="52" t="s">
+      <c r="I39" s="51" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="99" t="s">
+      <c r="J39" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="97" t="s">
+      <c r="E40" s="84" t="s">
         <v>255</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="F40" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="G40" s="53" t="s">
+      <c r="G40" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="H40" s="53" t="s">
+      <c r="H40" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="I40" s="53" t="s">
+      <c r="I40" s="52" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="53" t="s">
+      <c r="J40" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="I41" s="53" t="s">
+      <c r="I41" s="52" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="99" t="s">
+      <c r="J41" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="99" t="s">
+      <c r="E42" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="I42" s="53" t="s">
+      <c r="I42" s="52" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="73"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="53" t="s">
+      <c r="J42" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="53" t="s">
+      <c r="I43" s="52" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="73"/>
-      <c r="C44" s="72" t="s">
+      <c r="J43" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B45" s="87"/>
+      <c r="C45" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="D45" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="92" t="s">
+      <c r="E45" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="52" t="s">
+      <c r="F45" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52" t="s">
+      <c r="G45" s="51"/>
+      <c r="H45" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="I44" s="52" t="s">
+      <c r="I45" s="51" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="90" t="s">
+      <c r="J45" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K45" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="E45" s="92" t="s">
+      <c r="E46" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="G45" s="52" t="s">
+      <c r="F46" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="G46" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="H45" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="I45" s="52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="97" t="s">
+      <c r="H46" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="I46" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="J46" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K46" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="97" t="s">
+      <c r="E47" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="52" t="s">
+      <c r="F47" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="G46" s="52" t="s">
+      <c r="G47" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52" t="s">
+      <c r="H47" s="51"/>
+      <c r="I47" s="51" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="52" t="s">
+      <c r="J47" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K47" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G48" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="H47" s="52" t="s">
+      <c r="H48" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="I47" s="52" t="s">
+      <c r="I48" s="51" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="97" t="s">
+      <c r="J48" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K48" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="97" t="s">
+      <c r="E49" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F49" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="G48" s="52" t="s">
+      <c r="G49" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52" t="s">
+      <c r="H49" s="51"/>
+      <c r="I49" s="51" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="52" t="s">
+      <c r="J49" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G50" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="H49" s="52" t="s">
+      <c r="H50" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="I49" s="52" t="s">
+      <c r="I50" s="51" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="93" t="s">
+      <c r="J50" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="90" t="s">
+      <c r="E51" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="F50" s="52" t="s">
+      <c r="F51" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52" t="s">
+      <c r="G51" s="51"/>
+      <c r="H51" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="I50" s="52" t="s">
+      <c r="I51" s="51" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="80" t="s">
+      <c r="J51" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="80" t="s">
+      <c r="C52" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+    </row>
+    <row r="53" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+    </row>
+    <row r="54" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="101" t="s">
+      <c r="E54" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F54" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="G51" s="50"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="47" t="s">
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="J54" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="49" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="50" t="s">
+      <c r="G55" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="H55" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="H52" s="49" t="s">
+      <c r="I55" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="J55" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B56" s="90"/>
+      <c r="C56" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="I52" s="49" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="81"/>
-      <c r="C53" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="47" t="s">
+      <c r="G56" s="47"/>
+      <c r="H56" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="I56" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47" t="s">
+      <c r="J56" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K56" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="J57" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K57" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="48" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49" t="s">
+      <c r="G58" s="48" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="G55" s="49" t="s">
+      <c r="H58" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="H55" s="49" t="s">
+      <c r="I58" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="J58" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K58" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B59" s="90"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="I55" s="49" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="81"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="F56" s="49" t="s">
+      <c r="G59" s="47"/>
+      <c r="H59" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="G56" s="47"/>
-      <c r="H56" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="I56" s="49" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="81"/>
-      <c r="C57" s="75" t="s">
+      <c r="I59" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="J59" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K59" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="90"/>
+      <c r="C60" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="96" t="s">
+      <c r="D60" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="96" t="s">
+      <c r="E60" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="82"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B61" s="91"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D63" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="I63" s="45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D64" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B65" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D65" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="I65" s="45" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="B25:B50"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="B3:B24"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
@@ -5348,7 +5664,37 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="C32:C36"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="B25:B51"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="B3:B24"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C37:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인프로젝트/박동규 개인프로젝트/박동규 개인프로젝트.xlsx
+++ b/개인프로젝트/박동규 개인프로젝트/박동규 개인프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitLocation\HPMWPro\개인프로젝트\박동규 개인프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736A1DD7-7C96-4BA9-B0CC-D976FBDC6BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F084F3-A704-4214-BFFE-897391CCD456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="313">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,10 +915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">eventsBoard/eventBoardWriteView.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventsDTO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,10 +932,6 @@
   </si>
   <si>
     <t>EventsBoardModifyViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">eventsBoard/eventBoardModifyView.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1251,9 +1243,6 @@
     <t>main/main.jsp</t>
   </si>
   <si>
-    <t>ManagerLoginService</t>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1299,6 +1288,34 @@
   </si>
   <si>
     <t xml:space="preserve">noticeBoard/noticeBoardContentDetail.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManagerLoginService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogoutService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트타이머 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">eventsBoard/evenstBoardModifyView.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">eventsBoard/eventsBoardWriteView.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptWriteEmpConDetail.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptWriteEmpConDetailService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1967,54 +1984,66 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2027,68 +2056,56 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2490,41 +2507,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -2569,32 +2586,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="65" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76" t="s">
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="73"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -2694,7 +2711,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="70" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -2715,7 +2732,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="66"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2753,7 +2770,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -2774,7 +2791,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="69"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2812,7 +2829,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="70" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2833,7 +2850,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="66"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2892,7 +2909,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2913,7 +2930,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="67"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2951,7 +2968,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="72" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2972,7 +2989,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="67"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -3010,7 +3027,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="72" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -3031,7 +3048,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="67"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -3069,7 +3086,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -3090,7 +3107,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="67"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3128,7 +3145,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="72" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -3149,7 +3166,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="67"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -3187,7 +3204,7 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="72" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="10"/>
@@ -3208,7 +3225,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="67"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3267,7 +3284,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="73" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -3288,7 +3305,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="68"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3326,7 +3343,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="73" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -3347,7 +3364,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="68"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3385,7 +3402,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="73" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -3406,7 +3423,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="68"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3444,7 +3461,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="73" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -3465,7 +3482,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="68"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3524,7 +3541,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="71" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -3545,7 +3562,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="63"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3583,7 +3600,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="71" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -3604,7 +3621,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="63"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3642,7 +3659,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="71" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -3663,7 +3680,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="63"/>
+      <c r="C60" s="71"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3701,7 +3718,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="71" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3722,7 +3739,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="63"/>
+      <c r="C63" s="71"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3760,7 +3777,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="71" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3781,7 +3798,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="63"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3819,7 +3836,7 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="75" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="7"/>
@@ -3840,7 +3857,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="64"/>
+      <c r="C69" s="75"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3900,18 +3917,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
         <v>88</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="62" t="s">
+      <c r="L72" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="M72" s="62"/>
+      <c r="M72" s="74"/>
       <c r="N72" s="42"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -3937,12 +3954,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3955,13 +3973,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4199,8 +4216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4246,16 +4263,16 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="52" t="s">
@@ -4267,19 +4284,19 @@
         <v>152</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="52" t="s">
         <v>147</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>148</v>
@@ -4288,16 +4305,16 @@
         <v>66</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="80" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="86" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="52" t="s">
@@ -4309,14 +4326,14 @@
         <v>149</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="52" t="s">
         <v>162</v>
       </c>
@@ -4330,12 +4347,12 @@
         <v>152</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="97"/>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="78" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="53" t="s">
@@ -4358,12 +4375,12 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="80" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="84" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="52" t="s">
@@ -4379,14 +4396,14 @@
         <v>160</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="97"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="52" t="s">
         <v>165</v>
       </c>
@@ -4400,16 +4417,16 @@
         <v>66</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="80" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="84" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="52" t="s">
@@ -4425,14 +4442,14 @@
         <v>168</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="52" t="s">
         <v>169</v>
       </c>
@@ -4446,12 +4463,12 @@
         <v>160</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="97"/>
-      <c r="C12" s="82" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="78" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="53" t="s">
@@ -4471,12 +4488,12 @@
         <v>170</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="97"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="53" t="s">
         <v>68</v>
       </c>
@@ -4484,31 +4501,31 @@
         <v>90</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G13" s="52" t="s">
         <v>173</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I13" s="52" t="s">
         <v>174</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="97"/>
-      <c r="C14" s="82" t="s">
-        <v>227</v>
+      <c r="B14" s="92"/>
+      <c r="C14" s="78" t="s">
+        <v>225</v>
       </c>
       <c r="D14" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="53" t="s">
         <v>228</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>230</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>175</v>
@@ -4518,20 +4535,20 @@
         <v>176</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="53" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>182</v>
@@ -4543,40 +4560,40 @@
         <v>184</v>
       </c>
       <c r="I15" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>232</v>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>230</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>180</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="52" t="s">
         <v>179</v>
       </c>
@@ -4587,20 +4604,20 @@
         <v>181</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="102" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="102" t="s">
-        <v>234</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>232</v>
       </c>
       <c r="F18" s="52" t="s">
         <v>185</v>
@@ -4612,17 +4629,17 @@
         <v>190</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="52" t="s">
         <v>187</v>
       </c>
@@ -4633,20 +4650,20 @@
         <v>191</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="97"/>
-      <c r="C20" s="83"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="92"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F20" s="52" t="s">
         <v>189</v>
@@ -4658,15 +4675,15 @@
         <v>192</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="97"/>
-      <c r="C21" s="82" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="92"/>
+      <c r="C21" s="78" t="s">
         <v>99</v>
       </c>
       <c r="D21" s="53" t="s">
@@ -4686,12 +4703,12 @@
         <v>197</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="97"/>
-      <c r="C22" s="83"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="92"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="53" t="s">
         <v>100</v>
       </c>
@@ -4711,12 +4728,12 @@
         <v>201</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="97"/>
-      <c r="C23" s="82" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="92"/>
+      <c r="C23" s="78" t="s">
         <v>102</v>
       </c>
       <c r="D23" s="53" t="s">
@@ -4738,12 +4755,12 @@
         <v>201</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="53" t="s">
         <v>202</v>
       </c>
@@ -4761,14 +4778,14 @@
       </c>
       <c r="I24" s="52"/>
       <c r="J24" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="89" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="54" t="s">
@@ -4788,12 +4805,15 @@
         <v>197</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
+        <v>287</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="54" t="s">
         <v>100</v>
       </c>
@@ -4804,7 +4824,7 @@
         <v>198</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H26" s="51" t="s">
         <v>200</v>
@@ -4813,16 +4833,19 @@
         <v>201</v>
       </c>
       <c r="J26" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="84" t="s">
+      <c r="E27" s="100" t="s">
         <v>120</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -4833,82 +4856,88 @@
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="51" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
+        <v>287</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="51" t="s">
         <v>209</v>
       </c>
       <c r="G28" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="51" t="s">
         <v>213</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>214</v>
       </c>
       <c r="I28" s="51" t="s">
         <v>197</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="84" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="100" t="s">
         <v>113</v>
       </c>
       <c r="F29" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="H29" s="51" t="s">
+      <c r="I29" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="I29" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="J29" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="51" t="s">
-        <v>219</v>
-      </c>
       <c r="G30" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H30" s="51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="54" t="s">
         <v>114</v>
       </c>
@@ -4916,24 +4945,27 @@
         <v>121</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G31" s="51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H31" s="51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="87"/>
-      <c r="C32" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="90"/>
+      <c r="C32" s="89" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="54" t="s">
@@ -4950,20 +4982,20 @@
         <v>176</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F33" s="51" t="s">
         <v>182</v>
@@ -4975,15 +5007,15 @@
         <v>184</v>
       </c>
       <c r="I33" s="51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="54" t="s">
         <v>116</v>
       </c>
@@ -5000,61 +5032,61 @@
         <v>192</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="84" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="100" t="s">
         <v>123</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G35" s="51" t="s">
         <v>180</v>
       </c>
       <c r="H35" s="51" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B36" s="87"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="51" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G36" s="51" t="s">
         <v>188</v>
       </c>
       <c r="H36" s="51" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I36" s="51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B37" s="87"/>
-      <c r="C37" s="86" t="s">
+      <c r="B37" s="90"/>
+      <c r="C37" s="89" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="54" t="s">
@@ -5064,45 +5096,50 @@
         <v>134</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G37" s="51"/>
       <c r="H37" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="54" t="s">
         <v>248</v>
-      </c>
-      <c r="I37" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="J37" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="54" t="s">
-        <v>250</v>
       </c>
       <c r="E38" s="54" t="s">
         <v>135</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="H38" s="51"/>
+        <v>250</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>312</v>
+      </c>
       <c r="I38" s="51" t="s">
         <v>154</v>
       </c>
       <c r="J38" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="55" t="s">
         <v>124</v>
       </c>
@@ -5110,27 +5147,27 @@
         <v>124</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G39" s="51"/>
       <c r="H39" s="51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I39" s="51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="95" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="84" t="s">
-        <v>255</v>
+      <c r="E40" s="100" t="s">
+        <v>253</v>
       </c>
       <c r="F40" s="52" t="s">
         <v>167</v>
@@ -5145,37 +5182,37 @@
         <v>168</v>
       </c>
       <c r="J40" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="85"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G41" s="52" t="s">
         <v>156</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I41" s="52" t="s">
         <v>160</v>
       </c>
       <c r="J41" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="95" t="s">
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="95" t="s">
+      <c r="E42" s="80" t="s">
         <v>136</v>
       </c>
       <c r="F42" s="52" t="s">
@@ -5191,49 +5228,49 @@
         <v>168</v>
       </c>
       <c r="J42" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="52" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G43" s="52" t="s">
         <v>156</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I43" s="52" t="s">
         <v>160</v>
       </c>
       <c r="J43" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B44" s="90"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" s="60" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B44" s="87"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="59" t="s">
+      <c r="F44" s="52" t="s">
         <v>290</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>292</v>
       </c>
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B45" s="87"/>
-      <c r="C45" s="86" t="s">
+      <c r="B45" s="90"/>
+      <c r="C45" s="89" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="54" t="s">
@@ -5253,137 +5290,143 @@
         <v>170</v>
       </c>
       <c r="J45" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K45" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="54" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E46" s="56" t="s">
         <v>90</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G46" s="51" t="s">
         <v>173</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J46" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K46" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="84" t="s">
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="84" t="s">
+      <c r="E47" s="100" t="s">
         <v>132</v>
       </c>
       <c r="F47" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="51" t="s">
         <v>261</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>263</v>
       </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="J47" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="K47" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="G48" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="J47" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="K47" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="51" t="s">
+      <c r="H48" s="51" t="s">
         <v>266</v>
-      </c>
-      <c r="G48" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="H48" s="51" t="s">
-        <v>268</v>
       </c>
       <c r="I48" s="51" t="s">
         <v>170</v>
       </c>
       <c r="J48" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K48" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="84" t="s">
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="84" t="s">
+      <c r="E49" s="100" t="s">
         <v>130</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G49" s="51" t="s">
         <v>173</v>
       </c>
       <c r="H49" s="51"/>
       <c r="I49" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="J49" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="K49" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="H50" s="51" t="s">
         <v>270</v>
-      </c>
-      <c r="J49" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="G50" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="H50" s="51" t="s">
-        <v>272</v>
       </c>
       <c r="I50" s="51" t="s">
         <v>170</v>
       </c>
       <c r="J50" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="K50" s="45" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="57" t="s">
         <v>129</v>
       </c>
@@ -5391,24 +5434,27 @@
         <v>129</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G51" s="51"/>
       <c r="H51" s="51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I51" s="51" t="s">
         <v>170</v>
       </c>
       <c r="J51" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="K51" s="45" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="89" t="s">
+      <c r="C52" s="94" t="s">
         <v>91</v>
       </c>
       <c r="D52" s="58"/>
@@ -5419,8 +5465,8 @@
       <c r="I52" s="48"/>
     </row>
     <row r="53" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
       <c r="D53" s="58"/>
       <c r="E53" s="58"/>
       <c r="F53" s="48"/>
@@ -5429,8 +5475,8 @@
       <c r="I53" s="48"/>
     </row>
     <row r="54" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
       <c r="D54" s="58" t="s">
         <v>138</v>
       </c>
@@ -5438,20 +5484,23 @@
         <v>138</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
       <c r="I54" s="48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J54" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="K54" s="45" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
       <c r="D55" s="58" t="s">
         <v>93</v>
       </c>
@@ -5459,24 +5508,27 @@
         <v>93</v>
       </c>
       <c r="F55" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="H55" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="G55" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="H55" s="48" t="s">
-        <v>279</v>
-      </c>
       <c r="I55" s="48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J55" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="K55" s="45" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B56" s="90"/>
-      <c r="C56" s="89" t="s">
+      <c r="B56" s="95"/>
+      <c r="C56" s="94" t="s">
         <v>139</v>
       </c>
       <c r="D56" s="58" t="s">
@@ -5486,73 +5538,73 @@
         <v>145</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G56" s="47"/>
       <c r="H56" s="47" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I56" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="J56" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="K56" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="48" t="s">
         <v>281</v>
-      </c>
-      <c r="J56" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="K56" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="F57" s="48" t="s">
-        <v>283</v>
       </c>
       <c r="G57" s="48"/>
       <c r="H57" s="48"/>
       <c r="I57" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="J57" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="K57" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="H58" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="J57" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="K57" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="G58" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="H58" s="48" t="s">
-        <v>286</v>
-      </c>
       <c r="I58" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J58" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K58" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B59" s="90"/>
-      <c r="C59" s="92"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="58" t="s">
         <v>141</v>
       </c>
@@ -5560,31 +5612,31 @@
         <v>141</v>
       </c>
       <c r="F59" s="48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G59" s="47"/>
       <c r="H59" s="48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I59" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J59" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K59" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="90"/>
-      <c r="C60" s="93" t="s">
+      <c r="B60" s="95"/>
+      <c r="C60" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="78" t="s">
+      <c r="E60" s="82" t="s">
         <v>143</v>
       </c>
       <c r="F60" s="47"/>
@@ -5593,77 +5645,84 @@
       <c r="I60" s="47"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B61" s="91"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
       <c r="F61" s="47"/>
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
       <c r="I61" s="47"/>
     </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D62" s="45" t="s">
+        <v>308</v>
+      </c>
+    </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D63" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="I63" s="45" t="s">
         <v>293</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="H63" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="I63" s="45" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D64" s="45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E64" s="45" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F64" s="45" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B65" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="F65" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="H65" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="E65" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="F65" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="H65" s="45" t="s">
-        <v>301</v>
-      </c>
       <c r="I65" s="45" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="B52:B61"/>
     <mergeCell ref="C52:C55"/>
     <mergeCell ref="C56:C59"/>
@@ -5680,21 +5739,22 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C20"/>
     <mergeCell ref="B3:B24"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C32:C36"/>
     <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C37:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인프로젝트/박동규 개인프로젝트/박동규 개인프로젝트.xlsx
+++ b/개인프로젝트/박동규 개인프로젝트/박동규 개인프로젝트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitLocation\HPMWPro\개인프로젝트\박동규 개인프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F084F3-A704-4214-BFFE-897391CCD456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CE24DC-38AA-4FBB-903E-6C8CC9E164FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="312">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1308,10 +1308,6 @@
   </si>
   <si>
     <t xml:space="preserve">eventsBoard/eventsBoardWriteView.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ptWriteEmpConDetail.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1984,6 +1980,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2008,54 +2025,72 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2065,47 +2100,8 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2507,41 +2503,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -2586,32 +2582,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="72" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="69" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="66"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -2711,7 +2707,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="66" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -2732,7 +2728,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="70"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2770,7 +2766,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="69" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -2791,7 +2787,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="62"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2829,7 +2825,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="66" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2850,7 +2846,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="70"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2909,7 +2905,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2930,7 +2926,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="72"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2968,7 +2964,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="67" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2989,7 +2985,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="72"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -3027,7 +3023,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="67" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -3048,7 +3044,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="72"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -3086,7 +3082,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -3107,7 +3103,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3145,7 +3141,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="67" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -3166,7 +3162,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="72"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -3204,7 +3200,7 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="10"/>
@@ -3225,7 +3221,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="72"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3284,7 +3280,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="68" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -3305,7 +3301,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="73"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3343,7 +3339,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="68" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -3364,7 +3360,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="73"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3402,7 +3398,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="73" t="s">
+      <c r="C46" s="68" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -3423,7 +3419,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="73"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3461,7 +3457,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="68" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -3482,7 +3478,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="73"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3541,7 +3537,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="71" t="s">
+      <c r="C53" s="63" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -3562,7 +3558,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="71"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3600,7 +3596,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -3621,7 +3617,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="71"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3659,7 +3655,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="71" t="s">
+      <c r="C59" s="63" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -3680,7 +3676,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="71"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3718,7 +3714,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="63" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3739,7 +3735,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="71"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3777,7 +3773,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="71" t="s">
+      <c r="C65" s="63" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3798,7 +3794,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="71"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3836,7 +3832,7 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="75" t="s">
+      <c r="C68" s="64" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="7"/>
@@ -3857,7 +3853,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="75"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3917,18 +3913,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
         <v>88</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="74" t="s">
+      <c r="L72" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="M72" s="74"/>
+      <c r="M72" s="62"/>
       <c r="N72" s="42"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -3954,13 +3950,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3973,12 +3968,13 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4216,8 +4212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4263,16 +4259,16 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="85" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="52" t="s">
@@ -4288,10 +4284,10 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="92"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="52" t="s">
         <v>147</v>
       </c>
@@ -4309,12 +4305,12 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="92"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="84" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="99" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="52" t="s">
@@ -4330,10 +4326,10 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="92"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="87"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="100"/>
       <c r="F6" s="52" t="s">
         <v>162</v>
       </c>
@@ -4351,8 +4347,8 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="92"/>
-      <c r="C7" s="78" t="s">
+      <c r="B7" s="97"/>
+      <c r="C7" s="80" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="53" t="s">
@@ -4375,12 +4371,12 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="84" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="85" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="52" t="s">
@@ -4400,10 +4396,10 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="92"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="52" t="s">
         <v>165</v>
       </c>
@@ -4421,12 +4417,12 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="92"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="84" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="85" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="52" t="s">
@@ -4446,10 +4442,10 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="92"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="52" t="s">
         <v>169</v>
       </c>
@@ -4467,8 +4463,8 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="92"/>
-      <c r="C12" s="78" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="80" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="53" t="s">
@@ -4492,8 +4488,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="92"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="53" t="s">
         <v>68</v>
       </c>
@@ -4517,8 +4513,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="92"/>
-      <c r="C14" s="78" t="s">
+      <c r="B14" s="97"/>
+      <c r="C14" s="80" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -4542,8 +4538,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="53" t="s">
         <v>227</v>
       </c>
@@ -4567,12 +4563,12 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="84" t="s">
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="85" t="s">
         <v>230</v>
       </c>
       <c r="F16" s="52" t="s">
@@ -4590,10 +4586,10 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="52" t="s">
         <v>179</v>
       </c>
@@ -4611,12 +4607,12 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93" t="s">
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="102" t="s">
         <v>232</v>
       </c>
       <c r="F18" s="52" t="s">
@@ -4636,10 +4632,10 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="52" t="s">
         <v>187</v>
       </c>
@@ -4657,8 +4653,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="92"/>
-      <c r="C20" s="102"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="53" t="s">
         <v>233</v>
       </c>
@@ -4682,8 +4678,8 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="92"/>
-      <c r="C21" s="78" t="s">
+      <c r="B21" s="97"/>
+      <c r="C21" s="80" t="s">
         <v>99</v>
       </c>
       <c r="D21" s="53" t="s">
@@ -4707,8 +4703,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="92"/>
-      <c r="C22" s="102"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="53" t="s">
         <v>100</v>
       </c>
@@ -4732,8 +4728,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="92"/>
-      <c r="C23" s="78" t="s">
+      <c r="B23" s="97"/>
+      <c r="C23" s="80" t="s">
         <v>102</v>
       </c>
       <c r="D23" s="53" t="s">
@@ -4759,8 +4755,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="53" t="s">
         <v>202</v>
       </c>
@@ -4782,10 +4778,10 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="82" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="54" t="s">
@@ -4812,8 +4808,8 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="54" t="s">
         <v>100</v>
       </c>
@@ -4840,12 +4836,12 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="100" t="s">
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="78" t="s">
         <v>120</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -4866,10 +4862,10 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="51" t="s">
         <v>209</v>
       </c>
@@ -4885,14 +4881,17 @@
       <c r="J28" s="45" t="s">
         <v>287</v>
       </c>
+      <c r="K28" s="45" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="100" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="100" t="s">
+      <c r="E29" s="78" t="s">
         <v>113</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -4915,10 +4914,10 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
       <c r="F30" s="51" t="s">
         <v>217</v>
       </c>
@@ -4934,10 +4933,13 @@
       <c r="J30" s="45" t="s">
         <v>287</v>
       </c>
+      <c r="K30" s="45" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="54" t="s">
         <v>114</v>
       </c>
@@ -4964,8 +4966,8 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="90"/>
-      <c r="C32" s="89" t="s">
+      <c r="B32" s="83"/>
+      <c r="C32" s="82" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="54" t="s">
@@ -4989,8 +4991,8 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="54" t="s">
         <v>224</v>
       </c>
@@ -5014,8 +5016,8 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="54" t="s">
         <v>116</v>
       </c>
@@ -5039,12 +5041,12 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="100" t="s">
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="100" t="s">
+      <c r="E35" s="78" t="s">
         <v>123</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -5064,10 +5066,10 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="51" t="s">
         <v>234</v>
       </c>
@@ -5085,8 +5087,8 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B37" s="90"/>
-      <c r="C37" s="89" t="s">
+      <c r="B37" s="83"/>
+      <c r="C37" s="82" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="54" t="s">
@@ -5113,8 +5115,8 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="54" t="s">
         <v>248</v>
       </c>
@@ -5122,13 +5124,13 @@
         <v>135</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="G38" s="50" t="s">
         <v>250</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I38" s="51" t="s">
         <v>154</v>
@@ -5138,8 +5140,8 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="55" t="s">
         <v>124</v>
       </c>
@@ -5161,12 +5163,12 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="80" t="s">
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="100" t="s">
+      <c r="E40" s="78" t="s">
         <v>253</v>
       </c>
       <c r="F40" s="52" t="s">
@@ -5186,10 +5188,10 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="101"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="79"/>
       <c r="F41" s="52" t="s">
         <v>254</v>
       </c>
@@ -5207,12 +5209,12 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="80" t="s">
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="93" t="s">
         <v>136</v>
       </c>
       <c r="F42" s="52" t="s">
@@ -5232,10 +5234,10 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
       <c r="F43" s="52" t="s">
         <v>256</v>
       </c>
@@ -5253,8 +5255,8 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B44" s="90"/>
-      <c r="C44" s="91"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="84"/>
       <c r="D44" s="59" t="s">
         <v>288</v>
       </c>
@@ -5269,8 +5271,8 @@
       <c r="I44" s="52"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B45" s="90"/>
-      <c r="C45" s="89" t="s">
+      <c r="B45" s="83"/>
+      <c r="C45" s="82" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="54" t="s">
@@ -5297,8 +5299,8 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
       <c r="D46" s="54" t="s">
         <v>258</v>
       </c>
@@ -5325,12 +5327,12 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="100" t="s">
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="100" t="s">
+      <c r="E47" s="78" t="s">
         <v>132</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -5351,10 +5353,10 @@
       </c>
     </row>
     <row r="48" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
       <c r="F48" s="51" t="s">
         <v>264</v>
       </c>
@@ -5375,12 +5377,12 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="100" t="s">
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="100" t="s">
+      <c r="E49" s="78" t="s">
         <v>130</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -5401,10 +5403,10 @@
       </c>
     </row>
     <row r="50" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
       <c r="F50" s="51" t="s">
         <v>269</v>
       </c>
@@ -5425,8 +5427,8 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
       <c r="D51" s="57" t="s">
         <v>129</v>
       </c>
@@ -5451,10 +5453,10 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="94" t="s">
+      <c r="C52" s="87" t="s">
         <v>91</v>
       </c>
       <c r="D52" s="58"/>
@@ -5465,8 +5467,8 @@
       <c r="I52" s="48"/>
     </row>
     <row r="53" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="58"/>
       <c r="E53" s="58"/>
       <c r="F53" s="48"/>
@@ -5475,8 +5477,8 @@
       <c r="I53" s="48"/>
     </row>
     <row r="54" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="58" t="s">
         <v>138</v>
       </c>
@@ -5499,8 +5501,8 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="58" t="s">
         <v>93</v>
       </c>
@@ -5527,8 +5529,8 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B56" s="95"/>
-      <c r="C56" s="94" t="s">
+      <c r="B56" s="88"/>
+      <c r="C56" s="87" t="s">
         <v>139</v>
       </c>
       <c r="D56" s="58" t="s">
@@ -5555,12 +5557,12 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="82" t="s">
+      <c r="B57" s="88"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="82" t="s">
+      <c r="E57" s="95" t="s">
         <v>140</v>
       </c>
       <c r="F57" s="48" t="s">
@@ -5579,10 +5581,10 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
       <c r="F58" s="48" t="s">
         <v>280</v>
       </c>
@@ -5603,8 +5605,8 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B59" s="95"/>
-      <c r="C59" s="97"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="58" t="s">
         <v>141</v>
       </c>
@@ -5629,14 +5631,14 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="95"/>
-      <c r="C60" s="98" t="s">
+      <c r="B60" s="88"/>
+      <c r="C60" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="82" t="s">
+      <c r="E60" s="95" t="s">
         <v>143</v>
       </c>
       <c r="F60" s="47"/>
@@ -5645,10 +5647,10 @@
       <c r="I60" s="47"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B61" s="96"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
       <c r="F61" s="47"/>
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
@@ -5709,20 +5711,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="E57:E58"/>
     <mergeCell ref="B52:B61"/>
     <mergeCell ref="C52:C55"/>
     <mergeCell ref="C56:C59"/>
@@ -5739,22 +5743,20 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C20"/>
     <mergeCell ref="B3:B24"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C37:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인프로젝트/박동규 개인프로젝트/박동규 개인프로젝트.xlsx
+++ b/개인프로젝트/박동규 개인프로젝트/박동규 개인프로젝트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitLocation\HPMWPro\개인프로젝트\박동규 개인프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CE24DC-38AA-4FBB-903E-6C8CC9E164FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F4EB830-FD1B-4AF5-9217-DB8793805EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="테스트케이스" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="312">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1980,128 +1981,128 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2503,41 +2504,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -2582,32 +2583,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="65" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76" t="s">
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="73"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -2707,7 +2708,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="70" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -2728,7 +2729,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="66"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2766,7 +2767,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -2787,7 +2788,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="69"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2825,7 +2826,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="70" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2846,7 +2847,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="66"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2905,7 +2906,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2926,7 +2927,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="67"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2964,7 +2965,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="72" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2985,7 +2986,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="67"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -3023,7 +3024,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="72" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -3044,7 +3045,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="67"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -3082,7 +3083,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -3103,7 +3104,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="67"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3141,7 +3142,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="72" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -3162,7 +3163,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="67"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -3200,7 +3201,7 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="72" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="10"/>
@@ -3221,7 +3222,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="67"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3280,7 +3281,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="73" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -3301,7 +3302,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="68"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3339,7 +3340,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="73" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -3360,7 +3361,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="68"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3398,7 +3399,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="73" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -3419,7 +3420,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="68"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3457,7 +3458,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="73" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -3478,7 +3479,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="68"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3537,7 +3538,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="71" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -3558,7 +3559,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="63"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3596,7 +3597,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="71" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -3617,7 +3618,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="63"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3655,7 +3656,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="71" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -3676,7 +3677,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="63"/>
+      <c r="C60" s="71"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3714,7 +3715,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="63" t="s">
+      <c r="C62" s="71" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3735,7 +3736,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="63"/>
+      <c r="C63" s="71"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3773,7 +3774,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="71" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3794,7 +3795,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="63"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3832,7 +3833,7 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="75" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="7"/>
@@ -3853,7 +3854,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="64"/>
+      <c r="C69" s="75"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3913,18 +3914,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
         <v>88</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="62" t="s">
+      <c r="L72" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="M72" s="62"/>
+      <c r="M72" s="74"/>
       <c r="N72" s="42"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -3950,12 +3951,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3968,13 +3970,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4212,8 +4213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4232,7 +4233,7 @@
     <col min="12" max="16384" width="8.69921875" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="43" t="s">
         <v>58</v>
       </c>
@@ -4258,17 +4259,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="80" t="s">
+    <row r="3" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="84" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="52" t="s">
@@ -4282,12 +4283,15 @@
       <c r="J3" s="45" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
+      <c r="K3" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="92"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="52" t="s">
         <v>147</v>
       </c>
@@ -4303,14 +4307,17 @@
       <c r="J4" s="45" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="85" t="s">
+      <c r="K4" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="92"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="86" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="52" t="s">
@@ -4325,11 +4332,11 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="100"/>
+    <row r="6" spans="2:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="92"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="52" t="s">
         <v>162</v>
       </c>
@@ -4346,9 +4353,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="97"/>
-      <c r="C7" s="80" t="s">
+    <row r="7" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="92"/>
+      <c r="C7" s="78" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="53" t="s">
@@ -4369,14 +4376,17 @@
       <c r="I7" s="46" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="85" t="s">
+      <c r="K7" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="52" t="s">
@@ -4394,12 +4404,15 @@
       <c r="J8" s="45" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="97"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
+      <c r="K8" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="92"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="52" t="s">
         <v>165</v>
       </c>
@@ -4415,14 +4428,17 @@
       <c r="J9" s="45" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="85" t="s">
+      <c r="K9" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="92"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="84" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="52" t="s">
@@ -4440,12 +4456,15 @@
       <c r="J10" s="45" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
+      <c r="K10" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="92"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="52" t="s">
         <v>169</v>
       </c>
@@ -4461,10 +4480,13 @@
       <c r="J11" s="45" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="97"/>
-      <c r="C12" s="80" t="s">
+      <c r="K11" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="92"/>
+      <c r="C12" s="78" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="53" t="s">
@@ -4486,10 +4508,13 @@
       <c r="J12" s="45" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="97"/>
-      <c r="C13" s="81"/>
+      <c r="K12" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="92"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="53" t="s">
         <v>68</v>
       </c>
@@ -4511,10 +4536,13 @@
       <c r="J13" s="45" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="97"/>
-      <c r="C14" s="80" t="s">
+      <c r="K13" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="92"/>
+      <c r="C14" s="78" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="53" t="s">
@@ -4537,9 +4565,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="53" t="s">
         <v>227</v>
       </c>
@@ -4562,13 +4590,13 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="85" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="84" t="s">
         <v>230</v>
       </c>
       <c r="F16" s="52" t="s">
@@ -4586,10 +4614,10 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="52" t="s">
         <v>179</v>
       </c>
@@ -4607,12 +4635,12 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="102" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="93" t="s">
         <v>232</v>
       </c>
       <c r="F18" s="52" t="s">
@@ -4632,10 +4660,10 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="52" t="s">
         <v>187</v>
       </c>
@@ -4653,8 +4681,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" s="97"/>
-      <c r="C20" s="81"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="53" t="s">
         <v>233</v>
       </c>
@@ -4678,8 +4706,8 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="97"/>
-      <c r="C21" s="80" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="78" t="s">
         <v>99</v>
       </c>
       <c r="D21" s="53" t="s">
@@ -4701,10 +4729,13 @@
       <c r="J21" s="45" t="s">
         <v>287</v>
       </c>
+      <c r="K21" s="45" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="97"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="53" t="s">
         <v>100</v>
       </c>
@@ -4726,10 +4757,13 @@
       <c r="J22" s="45" t="s">
         <v>287</v>
       </c>
+      <c r="K22" s="45" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="97"/>
-      <c r="C23" s="80" t="s">
+      <c r="B23" s="92"/>
+      <c r="C23" s="78" t="s">
         <v>102</v>
       </c>
       <c r="D23" s="53" t="s">
@@ -4753,10 +4787,13 @@
       <c r="J23" s="45" t="s">
         <v>287</v>
       </c>
+      <c r="K23" s="45" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="53" t="s">
         <v>202</v>
       </c>
@@ -4778,10 +4815,10 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="89" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="54" t="s">
@@ -4808,8 +4845,8 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="54" t="s">
         <v>100</v>
       </c>
@@ -4836,12 +4873,12 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="78" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="100" t="s">
         <v>120</v>
       </c>
       <c r="F27" s="51" t="s">
@@ -4862,10 +4899,10 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="51" t="s">
         <v>209</v>
       </c>
@@ -4886,12 +4923,12 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="78" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="100" t="s">
         <v>113</v>
       </c>
       <c r="F29" s="51" t="s">
@@ -4914,10 +4951,10 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
       <c r="F30" s="51" t="s">
         <v>217</v>
       </c>
@@ -4938,8 +4975,8 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="54" t="s">
         <v>114</v>
       </c>
@@ -4966,8 +5003,8 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="83"/>
-      <c r="C32" s="82" t="s">
+      <c r="B32" s="90"/>
+      <c r="C32" s="89" t="s">
         <v>109</v>
       </c>
       <c r="D32" s="54" t="s">
@@ -4991,8 +5028,8 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="54" t="s">
         <v>224</v>
       </c>
@@ -5016,8 +5053,8 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="54" t="s">
         <v>116</v>
       </c>
@@ -5041,12 +5078,12 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="78" t="s">
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="100" t="s">
         <v>123</v>
       </c>
       <c r="F35" s="51" t="s">
@@ -5066,10 +5103,10 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="51" t="s">
         <v>234</v>
       </c>
@@ -5087,8 +5124,8 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B37" s="83"/>
-      <c r="C37" s="82" t="s">
+      <c r="B37" s="90"/>
+      <c r="C37" s="89" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="54" t="s">
@@ -5115,8 +5152,8 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="54" t="s">
         <v>248</v>
       </c>
@@ -5140,8 +5177,8 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="55" t="s">
         <v>124</v>
       </c>
@@ -5163,12 +5200,12 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="93" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="100" t="s">
         <v>253</v>
       </c>
       <c r="F40" s="52" t="s">
@@ -5186,12 +5223,15 @@
       <c r="J40" s="45" t="s">
         <v>287</v>
       </c>
+      <c r="K40" s="45" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="79"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="52" t="s">
         <v>254</v>
       </c>
@@ -5207,14 +5247,17 @@
       <c r="J41" s="45" t="s">
         <v>287</v>
       </c>
+      <c r="K41" s="45" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="93" t="s">
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="93" t="s">
+      <c r="E42" s="80" t="s">
         <v>136</v>
       </c>
       <c r="F42" s="52" t="s">
@@ -5232,12 +5275,15 @@
       <c r="J42" s="45" t="s">
         <v>287</v>
       </c>
+      <c r="K42" s="45" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="52" t="s">
         <v>256</v>
       </c>
@@ -5253,10 +5299,13 @@
       <c r="J43" s="45" t="s">
         <v>287</v>
       </c>
+      <c r="K43" s="45" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="44" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B44" s="83"/>
-      <c r="C44" s="84"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="59" t="s">
         <v>288</v>
       </c>
@@ -5271,8 +5320,8 @@
       <c r="I44" s="52"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B45" s="83"/>
-      <c r="C45" s="82" t="s">
+      <c r="B45" s="90"/>
+      <c r="C45" s="89" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="54" t="s">
@@ -5299,8 +5348,8 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="54" t="s">
         <v>258</v>
       </c>
@@ -5327,12 +5376,12 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="78" t="s">
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="78" t="s">
+      <c r="E47" s="100" t="s">
         <v>132</v>
       </c>
       <c r="F47" s="51" t="s">
@@ -5353,10 +5402,10 @@
       </c>
     </row>
     <row r="48" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
       <c r="F48" s="51" t="s">
         <v>264</v>
       </c>
@@ -5377,12 +5426,12 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="78" t="s">
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="100" t="s">
         <v>130</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -5403,10 +5452,10 @@
       </c>
     </row>
     <row r="50" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
       <c r="F50" s="51" t="s">
         <v>269</v>
       </c>
@@ -5427,8 +5476,8 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="57" t="s">
         <v>129</v>
       </c>
@@ -5453,10 +5502,10 @@
       </c>
     </row>
     <row r="52" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="87" t="s">
+      <c r="C52" s="94" t="s">
         <v>91</v>
       </c>
       <c r="D52" s="58"/>
@@ -5467,8 +5516,8 @@
       <c r="I52" s="48"/>
     </row>
     <row r="53" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
       <c r="D53" s="58"/>
       <c r="E53" s="58"/>
       <c r="F53" s="48"/>
@@ -5477,8 +5526,8 @@
       <c r="I53" s="48"/>
     </row>
     <row r="54" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
       <c r="D54" s="58" t="s">
         <v>138</v>
       </c>
@@ -5501,8 +5550,8 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
       <c r="D55" s="58" t="s">
         <v>93</v>
       </c>
@@ -5529,8 +5578,8 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B56" s="88"/>
-      <c r="C56" s="87" t="s">
+      <c r="B56" s="95"/>
+      <c r="C56" s="94" t="s">
         <v>139</v>
       </c>
       <c r="D56" s="58" t="s">
@@ -5557,12 +5606,12 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="95" t="s">
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="95" t="s">
+      <c r="E57" s="82" t="s">
         <v>140</v>
       </c>
       <c r="F57" s="48" t="s">
@@ -5581,10 +5630,10 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
       <c r="F58" s="48" t="s">
         <v>280</v>
       </c>
@@ -5605,8 +5654,8 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B59" s="88"/>
-      <c r="C59" s="90"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="58" t="s">
         <v>141</v>
       </c>
@@ -5631,14 +5680,14 @@
       </c>
     </row>
     <row r="60" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="88"/>
-      <c r="C60" s="91" t="s">
+      <c r="B60" s="95"/>
+      <c r="C60" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="95" t="s">
+      <c r="D60" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="95" t="s">
+      <c r="E60" s="82" t="s">
         <v>143</v>
       </c>
       <c r="F60" s="47"/>
@@ -5647,10 +5696,10 @@
       <c r="I60" s="47"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B61" s="89"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
       <c r="F61" s="47"/>
       <c r="G61" s="47"/>
       <c r="H61" s="47"/>
@@ -5711,6 +5760,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="B25:B51"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="B3:B24"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="D60:D61"/>
@@ -5727,36 +5806,6 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="B25:B51"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="B3:B24"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C37:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
